--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobma\Documents\UIUC\CS 410 - Text Info Systems\Group Project\CourseProject\CourseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBE525C-1AE1-4F34-9975-620B97539B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744D6B7D-6A9A-4329-A96D-0F62045FB794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-960" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bob" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Total time spent on project</t>
   </si>
   <si>
-    <t>Finally got EducationalWeb installed in local environment, began working on multiple download</t>
-  </si>
-  <si>
     <t>Creating Project Progress Report, updating README</t>
   </si>
   <si>
@@ -81,6 +78,45 @@
   </si>
   <si>
     <t>Working with Huang on EducationalWeb installation in Windows - he is also having problems</t>
+  </si>
+  <si>
+    <t>Reading code, finding where to update download logic, began duplicating for download-series logic</t>
+  </si>
+  <si>
+    <t>FINALLY got EducationalWeb installed in local environment, began working on multiple download</t>
+  </si>
+  <si>
+    <t>6:00 meeting with Cullen to work on download series logic, button arrangement, how to call functions</t>
+  </si>
+  <si>
+    <t>Worked with Huang, found a file name and directory name length limitation in Windows that may be what's causing us problems</t>
+  </si>
+  <si>
+    <t>Worked on JSZip.js and FileSaver.js for proof of concept on zipping multiple files.  Having difficulty with path lengths.</t>
+  </si>
+  <si>
+    <t>Worked with Cullen, confirmed my proof of concept is working on Mac machine</t>
+  </si>
+  <si>
+    <t>Meeting with team, worked through zipping multiple files, started looking for ways to zip an entire folder of files at once</t>
+  </si>
+  <si>
+    <t>Researching Node.js, Jquery, PHP, Ajax, Kintone, etc. looking for ways to get a list of all files within a server directory</t>
+  </si>
+  <si>
+    <t>Continued struggling with how to zip entire folder at once.  Started test case with hard-coded file lists, which was less-than-optimal</t>
+  </si>
+  <si>
+    <t>GOT IT.  By using file name convention, looping, and ignoring 404 errors, I can zip an entire directory without knowing its contents</t>
+  </si>
+  <si>
+    <t>Met with team, showed solution, worked with Cullen on how to set it up to work with his calling method, started documentation</t>
+  </si>
+  <si>
+    <t>Finishing documentation, video, arranging demo with reviewers</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -417,12 +453,12 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +524,7 @@
         <v>0.75</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +546,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,7 +557,7 @@
         <v>0.5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,7 +568,7 @@
         <v>0.5</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,13 +590,134 @@
         <v>0.5</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B14">
+        <v>3.75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B15">
+        <v>1.25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B17">
+        <v>0.25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B18">
+        <v>2.75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B20">
+        <v>2.75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B21">
+        <v>2.25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>SUM(B2:B26)</f>
-        <v>12.75</v>
+        <v>33.25</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobma\Documents\UIUC\CS 410 - Text Info Systems\Group Project\CourseProject\CourseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744D6B7D-6A9A-4329-A96D-0F62045FB794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B06BB5D-37E1-4DCA-B231-DBE6BAB12EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -113,10 +113,7 @@
     <t>Met with team, showed solution, worked with Cullen on how to set it up to work with his calling method, started documentation</t>
   </si>
   <si>
-    <t>Finishing documentation, video, arranging demo with reviewers</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>Finishing documentation, video, updating README, arranging demo with reviewers</t>
   </si>
 </sst>
 </file>
@@ -707,8 +704,8 @@
       <c r="A23" s="1">
         <v>44178</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
+      <c r="B23">
+        <v>2.75</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -717,7 +714,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>SUM(B2:B26)</f>
-        <v>33.25</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
